--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3328,6 +3328,204 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1052724</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>30-07-2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1052724</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1052724</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Expediente: 1052724 PRIMER MONITOREO SEMESTRAL“APLICACIÓN PROCEDIMIENTO PERTURBACIÓN CONTROLADA (MMFAU1-D)”</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Período:03-05-2024 - 05-05-2024</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Frecuencia:Semestral</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Descripción Este informe presenta el seguimiento de la medida de mitigación Aplicación Procedimiento Perturbación Controlada para la protección de especies de reptiles en el Parque Solar Fotovoltaico Tamarico</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1052724
+1  2  ...  1052724
+2  3  ...  1052724
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1052729</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>30-07-2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1052729</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1052729</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Expediente: 1052729 INFORME DE SEGUIMIENTOPRIMER MONITOREO SEMESTRAL “APLICACIÓN PROCEDIMIENTO RESCATE Y RELOCALIZACIÓN DE REPTILES (MMFAU1-A)”</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Período:03-05-2024 - 05-05-2024</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Frecuencia:Semestral</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Descripción Primer monitoreo semestral de la medida de mitigación Aplicación de Procedimiento de Rescate y Relocalización de reptiles</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1052729
+1  2  ...  1052729
+2  3  ...  1052729
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3526,6 +3526,302 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1052795</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Otros  Flora y vegetación terrestre  Fauna terrestre  Patrimonio Histórico y Cultural  Paisaje y Turismo</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1052795</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1052795</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Expediente: 1052795 INDUCCIÓN HOMBRE NUEVO PREVIO A LA CONSTRUCCIÓN</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Período:30-06-2022 - 27-12-2022</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Frecuencia:Única</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Otros</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Descripción Capacitar a trabajadores del proyecto en las medidas planteadas y el respeto por la biota.</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1052795
+1  2  ...  1052795
+2  3  ...  1052795
+3  4  ...  1052795
+[4 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1052809</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1052809</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1052809</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Expediente: 1052809 INFORMEIMPLEMENTACIÓN DE MEDIDA AMBIENTAL “PROGRAMA DE MANEJO DE GERMOPLASMA DE FLORA EN CATEGORÍA DE CONSERVACIÓN(MCVF1-A)”</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Período:20-09-2022 - 13-10-2022</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Frecuencia:Condicional</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Descripción Se reporta el avance en la implementación de la medida de compensación “Programa de manejo de germoplasma de flora en categoría de conservación” de la componente ambiental Flora y Vegetación</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1052809
+1  2  ...  1052809
+2  3  ...  1052809
+3  4  ...  1052809
+[4 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1052816</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>31-07-2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1052816</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1052816</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Expediente: 1052816 INFORME SEMESTRAL DE AGUAS INDUSTRIAL ENERO-JUNIO 2024</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Período:02-01-2024 - 30-06-2024</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Frecuencia:Semestral</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:S/I</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Descripción En relación con el consumo agua fresca, el Titular deberá reportar semestralmente dichos consumos y las correspondientes autorizaciones a la Superintendencia del Medio Ambiente,</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1052816
+1  2  ...  1052816
+2  3  ...  1052816
+3  4  ...  1052816
+[4 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3822,6 +3822,105 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1053035</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>02-08-2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1053035</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1053035</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Expediente: 1053035 INFORME ÚNICOIMPLEMENTACIÓN DE MEDIDA AMBIENTAL “RESTAURACIÓN ÁREAS DE INTERVENCIÓN TEMPORAL (INSTALACIÓN DE FAENAS, PATIOS DE ACOPIO, FRENTES DE TRABAJO, ETC.) (MRVF-1)”</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Período:24-05-2023 - 02-04-2024</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Frecuencia:Única</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Descripción Implementación de la infraestructura de vivero, acondicionamiento y sistema de riego</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1053035
+1  2  ...  1053035
+2  3  ...  1053035
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3921,6 +3921,303 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1053113</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1053113</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1053113</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Expediente: 1053113 MMFAU1-DPRIMER  INFORME SEGUIMIENTO APLICACION PROCEDIMIENTO PERTURBACION CONTROLADA</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Período:31-05-2023 - 31-05-2023</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Frecuencia:Condicional</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Descripción Las actividades del primer seguimiento a la implementación del Plan de perturbación controlada de  Reptiles</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1053113
+1  2  ...  1053113
+2  3  ...  1053113
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1053114</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1053114</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1053114</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Expediente: 1053114 SEGUNDO INFORME DE SEGUIMIENTO“APLICACIÓN PROCEDIMIENTO PERTURBACIÓN CONTROLADA (MMFAU1-D)”</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Período:22-06-2023 - 22-06-2023</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Frecuencia:Condicional</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Descripción El presente informe da cuenta del segundo seguimiento posterior de implementada la medida de mitigación MMFau1-d</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1053114
+1  2  ...  1053114
+2  3  ...  1053114
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1053115</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>04-08-2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1053115</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1053115</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Expediente: 1053115 TERCER INFORME DE SEGUIMIENTO“APLICACIÓN PROCEDIMIENTO PERTURBACIÓN CONTROLADA (MMFAU1-D)”</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Período:25-07-2023 - 27-07-2023</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Frecuencia:Condicional</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Descripción El presente informe da cuenta del tercer seguimiento posterior de implementada la medida de mitigación MMFau1-d “Aplicación del procedimiento de Perturbación controlada” en reptiles</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1053115
+1  2  ...  1053115
+2  3  ...  1053115
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4218,6 +4218,204 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1059557</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>19-11-2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059557</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1059557</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Expediente: 1059557 INFORME MENSUAL 2 MONITOREO CONSOLIDADO (MMVF-1).  RESCATE Y RELOCALIZACIÓN DE EJEMPLARES EN CATEGORÍA DE CONSERVACIÓN Y GEÓFITAS.</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Período:07-01-2023 - 17-05-2023</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Frecuencia:Mensual</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Descripción El segundo monitoreo mensual tiene como objetivos reportar el seguimiento de la relocalización de cactáceas en categoría de conservación, a través del monitoreo especies rescatadas y relocalizadas.</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059557
+1  2  ...  1059557
+2  3  ...  1059557
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1059568</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>19-11-2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059568</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1059568</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Expediente: 1059568 INFORME MENSUAL 3 MONITOREO CONSOLIDADO (MMVF-1). RESCATE Y RELOCALIZACIÓN DE EJEMPLARES EN CATEGORÍA DE CONSERVACIÓN Y GEÓFITAS.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Período:13-02-2023 - 17-05-2023</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Frecuencia:Mensual</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Descripción El tercer monitoreo mensual tiene como objetivos reportar el seguimiento de la relocalización de cactáceas en categoría de conservación, a través del monitoreo especies rescatadas y relocalizadas.</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059568
+1  2  ...  1059568
+2  3  ...  1059568
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4416,6 +4416,204 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1059625</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20-11-2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059625</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1059625</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Expediente: 1059625 INFORME DE MONITOREO TRIMESTRAL N°1 (MMVF-1). RELOCALIZACIÓN SECTORES 1,2 Y 4 DE LA MEDIDA DE MITIGACIÓN  RESCATE Y RELOCALIZACIÓN DE EJEMPLARES EN CATEGORÍA DE CONSERVACIÓN Y GEOFITAS.</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Período:14-02-2023 - 17-05-2023</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Frecuencia:Trimestral</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Descripción El primer monitoreo trimestral tiene como objetivo reportar el seguimiento a la relocalización de cactáceas en categoría de conservación.</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059625
+1  2  ...  1059625
+2  3  ...  1059625
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1059665</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>20-11-2024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059665</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1059665</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Expediente: 1059665 INFORME DE MONITOREO TRIMESTRAL N°2 (MMVF-1). RELOCALIZACIÓN SECTORES 1,2 Y 4 DE LA MEDIDA DE MITIGACIÓN  RESCATE Y RELOCALIZACIÓN DE EJEMPLARES EN CATEGORÍA DE CONSERVACIÓN Y GEOFITAS.</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Período:15-05-2023 - 20-08-2023</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Frecuencia:Trimestral</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Descripción El segundo monitoreo trimestral, tiene como objetivo reportar el seguimiento a la relocalización de cactáceas en categoría de conservación.</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059665
+1  2  ...  1059665
+2  3  ...  1059665
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4614,6 +4614,204 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1059690</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059690</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1059690</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Expediente: 1059690 INFORME DE MONITOREO TRIMESTRAL N°3 (MMVF-1). RELOCALIZACIÓN SECTORES 1,2 Y 4 DE LA MEDIDA DE MITIGACIÓN  RESCATE Y RELOCALIZACIÓN DE EJEMPLARES EN CATEGORÍA DE CONSERVACIÓN Y GEOFITAS.</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Período:19-08-2023 - 07-11-2023</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Frecuencia:Trimestral</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Descripción El tercer monitoreo trimestral, tiene como objetivo reportar el seguimiento a la relocalización de cactáceas en categoría de conservación.</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059690
+1  2  ...  1059690
+2  3  ...  1059690
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1059730</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>21-11-2024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059730</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1059730</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Expediente: 1059730 INFORME DE MONITOREO TRIMESTRAL N°4 (MMVF-1). RELOCALIZACIÓN SECTORES 1,2 Y 4 DE LA MEDIDA DE MITIGACIÓN  RESCATE YRELOCALIZACIÓN DE EJEMPLARES EN CATEGORÍA DE CONSERVACIÓN Y GEOFITAS.</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Período:06-11-2023 - 01-02-2024</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Frecuencia:Trimestral</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Descripción El cuarto monitoreo trimestral tiene como objetivo reportar el seguimiento a la relocalización de cactáceas en categoría de conservación.</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059730
+1  2  ...  1059730
+2  3  ...  1059730
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4812,6 +4812,105 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1059781</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>22-11-2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059781</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1059781</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Expediente: 1059781 INFORME MENSUAL 1 MONITOREO CONSOLIDADO (MMVF-1). RESCATE Y RELOCALIZACIÓN DE EJEMPLARES EN CATEGORÍA DE CONSERVACIÓN Y GEÓFITAS.</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Período:11-11-2022 - 16-03-2023</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Frecuencia:Mensual</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Descripción El primer monitoreo mensual tiene como objetivo reportar el seguimiento de la relocalización de cactáceas en categoría de conservación, a través del monitoreo especies rescatadas y relocalizadas.</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059781
+1  2  ...  1059781
+2  3  ...  1059781
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4911,6 +4911,204 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1059835</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>23-11-2024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059835</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1059835</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Expediente: 1059835 INFORME DE MONITOREO ANUAL AÑO 1 (MMVF-1). RELOCALIZACIÓN SECTORES 1,2 Y 4 DE LA MEDIDA DE MITIGACIÓN  RESCATE Y RELOCALIZACIÓN DE EJEMPLARES EN CATEGORÍA DE CONSERVACIÓN Y GEOFITAS.</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Período:09-02-2024 - 05-05-2024</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Frecuencia:Anual</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Descripción Reportar la ejecución de la medida “Rescate y relocalización de ejemplares en categoría de conservación y geófitas” (MMVF-1),de los ejemplares relocalizados al año 1 de la implementación de la medida.</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059835
+1  2  ...  1059835
+2  3  ...  1059835
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1059838</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>23-11-2024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059838</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1059838</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Expediente: 1059838 INFORME PERIÓDICO N°7 “ESTUDIO DE POBLACIONES DE ZORROS Y GUANACOS ANTES Y DESPUÉS DE ESTABLECIDO EL PROYECTO (MCFAU2-A)”</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Período:10-06-2024 - 12-06-2024</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Frecuencia:Trimestral</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Descripción Septimo monitoreo de la medida de mitigación “Estudio de poblaciones de zorros y guanacos antes y después de establecido el Proyecto” (MCFau2-a), para la componente Fauna</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059838
+1  2  ...  1059838
+2  3  ...  1059838
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5109,6 +5109,204 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1059868</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059868</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1059868</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Expediente: 1059868 INFORME PERIÓDICO N°8 “ESTUDIO DE POBLACIONES DE ZORROS Y GUANACOS ANTES Y DESPUÉS DE ESTABLECIDO EL PROYECTO (MCFAU2-A)”</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Período:08-08-2024 - 10-08-2024</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Frecuencia:Trimestral</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Descripción Octavo monitoreo de la medida de mitigación “Estudio de poblaciones de zorros y guanacos antes y después de establecido el Proyecto” (MCFau2-a), para la componente Fauna</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059868
+1  2  ...  1059868
+2  3  ...  1059868
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1059918</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059918</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1059918</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Expediente: 1059918 INFORME DE MONITOREO SEMESTRAL N°1  AÑO 2 (MMVF-1). RELOCALIZACIÓN SECTORES 1,2 Y 4 DE LA MEDIDA DE MITIGACIÓN  RESCATE Y RELOCALIZACIÓN DE EJEMPLARES EN CATEGORÍA DE CONSERVACIÓN Y GEOFITAS.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Período:05-09-2024 - 08-10-2024</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Frecuencia:Semestral</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Flora y vegetación terrestre</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Descripción El primer monitoreo semestral del año 2, tiene como objetivo reportar el seguimiento a la relocalización de cactáceas en categoría de conservación.</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059918
+1  2  ...  1059918
+2  3  ...  1059918
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,6 +5307,303 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1059956</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059956</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1059956</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Expediente: 1059956 INFORME ANUAL N°1 DE IMPLEMENTACIÓN DE MEDIDA DE COMPENSACIÓN AMBIENTAL ESTUDIO DE POBLACIONES DE ZORROS Y GUANACOS ANTES Y DESPUÉS DE ESTABLECIDO EL PROYECTO (MCFAU2-A)”</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Período:08-11-2022 - 28-08-2023</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Frecuencia:Anual</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Descripción Informe de monitoreo anual N°1 de la medida de mitigación “Estudio de poblaciones de zorros y guanacos antes y después de establecido el Proyecto” (MCFau2-a), para la componente Fauna</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059956
+1  2  ...  1059956
+2  3  ...  1059956
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1059961</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059961</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1059961</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Expediente: 1059961 INFORME PERIÓDICO N°4  “ESTUDIO DE POBLACIONES DE ZORROS Y GUANACOS ANTES Y DESPUÉS DE ESTABLECIDO EL PROYECTO (MCFAU2-A)”</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Período:22-08-2023 - 28-08-2023</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Frecuencia:Trimestral</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Descripción Cuarto monitoreo de la medida “Estudio de poblaciones de zorros y guanacos antes y después de establecido el Proyecto” (MCFau2-a), para la componente Fauna</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059961
+1  2  ...  1059961
+2  3  ...  1059961
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1059975</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>26-11-2024</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1059975</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1059975</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Expediente: 1059975 INFORME DE IMPLEMENTACIÓN DE MEDIDA “RESTAURACIÓN DE HÁBITAT DE REPTILES (MRFAU-1)” (COMPROBACIÓN DE LA MEDIDA)</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Período:15-10-2024 - 17-10-2024</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Frecuencia:Única</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Descripción Comprobar la medida de restauración de parte del hábitat perdido por el establecimiento del proyecto relocalizando roqueríos a zonas aledañas a las obras.</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1059975
+1  2  ...  1059975
+2  3  ...  1059975
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5604,6 +5604,105 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1060931</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>11-12-2024</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1060931</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1060931</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Expediente: 1060931 SEGUNDO MONITOREO SEMESTRAL “APLICACIÓN PROCEDIMIENTO PERTURBACIÓN CONTROLADA (MMFAU1-D)”</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Período:15-10-2024 - 15-10-2024</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Frecuencia:Semestral</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Descripción Este informe presenta el seguimiento de la medida de mitigación Aplicación Procedimiento Perturbación Controlada para la protección de especies de reptiles en el Parque Solar Fotovoltaico Tamarico</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1060931
+1  2  ...  1060931
+2  3  ...  1060931
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5703,6 +5703,105 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1062007</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>30-12-2024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1062007</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1062007</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Expediente: 1062007 IMPLEMENTACIÓN MEDIDA DE COMPENSACIÓN “ACTIVIDADES DE DIFUSIÓN AMBIENTAL (MCFAU2-C)”</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Período:30-09-2024 - 01-10-2024</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Frecuencia:Anual</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Descripción Las actividades correspondieron a charlas de difusión ambiental que se realizaron en establecimientos educacionales de la comuna de Vallenar en el año 2024</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1062007
+1  2  ...  1062007
+2  3  ...  1062007
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5802,6 +5802,303 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1062327</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1062327</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1062327</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Expediente: 1062327 INFORME DE SEGUIMIENTO SEGUNDO MONITOREO SEMESTRAL “APLICACIÓN PROCEDIMIENTO RESCATE Y RELOCALIZACIÓN DE REPTILES (MMFAU1-A)”</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Período:16-10-2024 - 17-10-2024</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Frecuencia:Semestral</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Descripción Segundo monitoreo semestral de la medida de mitigación Aplicación de Procedimiento de Rescate y Relocalización de reptiles</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1062327
+1  2  ...  1062327
+2  3  ...  1062327
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1062355</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1062355</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1062355</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Expediente: 1062355 INFORME PERIÓDICO N°9 “ESTUDIO DE POBLACIONES DE ZORROS Y GUANACOS ANTES Y DESPUÉS DE ESTABLECIDO EL PROYECTO (MCFAU2-A)”</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Período:15-10-2024 - 18-10-2024</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Frecuencia:Trimestral</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Descripción Noveno monitoreo de la medida de mitigación “Estudio de poblaciones de zorros y guanacos antes y después de establecido el Proyecto” (MCFau2-a), para la componente Fauna</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1062355
+1  2  ...  1062355
+2  3  ...  1062355
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1062365</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>03-01-2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1062365</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1062365</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Expediente: 1062365 INFORME ANUAL N°2 DE IMPLEMENTACIÓN DE MEDIDA DE COMPENSACIÓN AMBIENTAL ESTUDIO DE POBLACIONES DE ZORROS Y GUANACOS ANTES Y DESPUÉS DE ESTABLECIDO EL PROYECTO (MCFAU2-A)”</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Período:19-12-2023 - 10-08-2024</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Frecuencia:Anual</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Descripción Informe de monitoreo anual N°2 (Estacionalidad completa), “Estudio de poblaciones de zorros y guanacos antes y después de establecido el Proyecto” (MCFau2-a), para la componente Fauna.</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1062365
+1  2  ...  1062365
+2  3  ...  1062365
+[3 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6099,6 +6099,207 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1062375</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1062375</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1062375</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Expediente: 1062375 INFORME ANUAL N°1 DE MOVIMIENTO DE GUANACOS  “SEGUIMIENTO CON DISPOSITIVOS GPS A EJEMPLARES DE LAMA GUANICOE (MCFAU2-B)”</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Período:16-06-2023 - 26-05-2024</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Frecuencia:Anual</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Descripción Establecer el ámbito de hogar de los ejemplares de guanacos marcados con collares GPS y conocer su rango de distribución, a través del uso de la telemetría satelital.</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1062375
+1  2  ...  1062375
+2  3  ...  1062375
+3  4  ...  1062375
+4  5  ...  1062375
+[5 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1062376</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>04-01-2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>172-2016</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>TAMARICO SOLAR DOS SPA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Energía</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Región de Atacama</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Ver detalles</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl/SeguimientoAmbiental/Ficha/1062376</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1062376</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Expediente: 1062376 “PROGRAMA DE APOYO AL PLAN DE ESTERILIZACIÓN CANINA Y FELINA DE LA ILUSTRE MUNICIPALIDAD DE VALLENAR (MCFAU2-E)”</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Período:06-12-2023 - 06-12-2024</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Frecuencia:Anual</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>SubComponente Ambiental:Fauna terrestre</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>PARQUE SOLAR FOTOVOLTAICO TAMARICO Vallenar - Región de Atacama</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>https://snifa.sma.gob.cl//UnidadFiscalizable/Ficha/14321</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Descripción Apoyar el Plan de esterilización y castración canina y felina, el cual forma parte del Programa de Tenencia responsable de mascotas de la I. Municipalidad de Vallenar.</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0  ...  idFicha
+0  1  ...  1062376
+1  2  ...  1062376
+2  3  ...  1062376
+3  4  ...  1062376
+[4 rows x 6 columns]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
